--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_38.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_38.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Chiyo Kondo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
